--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Plan After X Hours of Work</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Remaining Effort</t>
+  </si>
+  <si>
+    <t>Total effort needed to rearch goal</t>
   </si>
 </sst>
 </file>
@@ -102,13 +105,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -388,82 +395,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
